--- a/doc/organisation/Burndown Chart/Sprint 6.xlsx
+++ b/doc/organisation/Burndown Chart/Sprint 6.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaudouin.eliott\Documents\Spot_a_friend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaudouin.eliott\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BB6939-6C77-49E9-A813-45D9CACF9D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C1342-79C3-4414-8FFB-E1A41DA52443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -456,25 +456,25 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="2"/>
-    <cellStyle name="Accent 1" xfId="3"/>
-    <cellStyle name="Accent 2" xfId="4"/>
-    <cellStyle name="Accent 3" xfId="5"/>
-    <cellStyle name="Bad" xfId="6"/>
-    <cellStyle name="Error" xfId="7"/>
-    <cellStyle name="Footnote" xfId="8"/>
-    <cellStyle name="Good" xfId="9"/>
-    <cellStyle name="Heading (user)" xfId="10"/>
-    <cellStyle name="Heading 1" xfId="11"/>
-    <cellStyle name="Heading 2" xfId="12"/>
-    <cellStyle name="Hyperlink" xfId="13"/>
-    <cellStyle name="Neutral" xfId="14"/>
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result (user)" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result (user)" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,6 +673,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7435-4EEA-9473-807A6FB43DFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -761,7 +766,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -790,6 +795,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7435-4EEA-9473-807A6FB43DFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -995,36 +1005,41 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7435-4EEA-9473-807A6FB43DFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1246,6 +1261,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7435-4EEA-9473-807A6FB43DFE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1857,10 +1877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
@@ -2029,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2" s="6">
         <v>0</v>
@@ -2057,7 +2079,7 @@
       </c>
       <c r="AE2" s="7">
         <f>B2-(SUM(C2:AD2))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="14.4">
@@ -2124,8 +2146,8 @@
       <c r="U3" s="9">
         <v>0</v>
       </c>
-      <c r="V3" s="9">
-        <v>0</v>
+      <c r="V3" s="6">
+        <v>2</v>
       </c>
       <c r="W3" s="9">
         <v>0</v>
@@ -2153,7 +2175,7 @@
       </c>
       <c r="AE3" s="10">
         <f>B3-(SUM(C3:AD3))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="14.4">
@@ -2677,7 +2699,7 @@
       </c>
       <c r="V11" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W11" s="16">
         <f t="shared" si="1"/>
@@ -2798,39 +2820,39 @@
       </c>
       <c r="V12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="W12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD12" s="14">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="14.4">
